--- a/cypress/fixtures/Excel Files/Club Data/ClubData1.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/ClubData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A86DCA-F22C-47BC-B29C-C07AD37FD418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EBCBE2-92A5-414B-B7B4-CDD2DA3C44D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>clubNameEng</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>日曜日</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>D:/Club Images</t>
   </si>
 </sst>
 </file>
@@ -295,6 +301,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +309,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -353,6 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,10 +581,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR79"/>
+  <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,7 +598,7 @@
     <col min="27" max="31" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +731,11 @@
       <c r="AR1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -856,8 +868,11 @@
       <c r="AR2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS2" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -896,7 +911,7 @@
       </c>
       <c r="AC3" s="5"/>
     </row>
-    <row r="4" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -932,7 +947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -962,7 +977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -992,7 +1007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1020,7 +1035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1048,7 +1063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1076,7 +1091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1101,7 +1116,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1126,7 +1141,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1151,7 +1166,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1176,7 +1191,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1201,7 +1216,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1226,7 +1241,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
